--- a/po_analysis_by_asin/B0BH9F7DKS_po_data.xlsx
+++ b/po_analysis_by_asin/B0BH9F7DKS_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -557,7 +558,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -591,6 +592,299 @@
       </c>
       <c r="B5" t="n">
         <v>248</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>44934.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>532</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-123.2871305643701</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1186.197436938764</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>44941.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>532</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-103.4634149344785</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1207.331111968391</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>44948.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>532</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-110.6111203774799</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1137.440803612999</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>44955.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>532</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-149.4982895828351</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1159.062333599409</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>44962.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>532</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-133.7465623871623</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1231.014927615016</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>44976.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>532</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-105.9785535702745</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1173.172570235659</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>44983.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>533</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-103.5925116732062</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1183.64277223348</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>44990.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>533</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-92.06715887877482</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1216.993736189557</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>44997.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>533</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-101.7416557830561</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1178.804593325065</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45263.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>538</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-101.6150572120673</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1212.128437865611</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45270.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>539</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-135.1620517242875</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1180.201636370987</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45277.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>539</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-100.2402554954897</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1199.659850007771</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45284.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>539</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-150.2094955181903</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1201.257554909247</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45291.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>539</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-183.9245665370746</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1180.902697280201</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45298.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>539</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-104.6596667789762</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1224.013269032895</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45305.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>539</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-128.7091572567277</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1192.540659080959</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45312.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>539</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-66.55581611742227</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1222.158903010484</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45319.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>540</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-110.2926165736396</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1260.230566246338</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0BH9F7DKS_po_data.xlsx
+++ b/po_analysis_by_asin/B0BH9F7DKS_po_data.xlsx
@@ -605,7 +605,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -624,16 +624,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -642,12 +632,6 @@
       <c r="B2" t="n">
         <v>532</v>
       </c>
-      <c r="C2" t="n">
-        <v>-123.2871305643701</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1186.197436938764</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -656,12 +640,6 @@
       <c r="B3" t="n">
         <v>532</v>
       </c>
-      <c r="C3" t="n">
-        <v>-103.4634149344785</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1207.331111968391</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -670,12 +648,6 @@
       <c r="B4" t="n">
         <v>532</v>
       </c>
-      <c r="C4" t="n">
-        <v>-110.6111203774799</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1137.440803612999</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -684,12 +656,6 @@
       <c r="B5" t="n">
         <v>532</v>
       </c>
-      <c r="C5" t="n">
-        <v>-149.4982895828351</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1159.062333599409</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -698,12 +664,6 @@
       <c r="B6" t="n">
         <v>532</v>
       </c>
-      <c r="C6" t="n">
-        <v>-133.7465623871623</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1231.014927615016</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -712,12 +672,6 @@
       <c r="B7" t="n">
         <v>532</v>
       </c>
-      <c r="C7" t="n">
-        <v>-105.9785535702745</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1173.172570235659</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -726,12 +680,6 @@
       <c r="B8" t="n">
         <v>533</v>
       </c>
-      <c r="C8" t="n">
-        <v>-103.5925116732062</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1183.64277223348</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -740,12 +688,6 @@
       <c r="B9" t="n">
         <v>533</v>
       </c>
-      <c r="C9" t="n">
-        <v>-92.06715887877482</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1216.993736189557</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -754,12 +696,6 @@
       <c r="B10" t="n">
         <v>533</v>
       </c>
-      <c r="C10" t="n">
-        <v>-101.7416557830561</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1178.804593325065</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -768,12 +704,6 @@
       <c r="B11" t="n">
         <v>538</v>
       </c>
-      <c r="C11" t="n">
-        <v>-101.6150572120673</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1212.128437865611</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -782,12 +712,6 @@
       <c r="B12" t="n">
         <v>539</v>
       </c>
-      <c r="C12" t="n">
-        <v>-135.1620517242875</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1180.201636370987</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -796,12 +720,6 @@
       <c r="B13" t="n">
         <v>539</v>
       </c>
-      <c r="C13" t="n">
-        <v>-100.2402554954897</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1199.659850007771</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -810,12 +728,6 @@
       <c r="B14" t="n">
         <v>539</v>
       </c>
-      <c r="C14" t="n">
-        <v>-150.2094955181903</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1201.257554909247</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -824,12 +736,6 @@
       <c r="B15" t="n">
         <v>539</v>
       </c>
-      <c r="C15" t="n">
-        <v>-183.9245665370746</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1180.902697280201</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -838,12 +744,6 @@
       <c r="B16" t="n">
         <v>539</v>
       </c>
-      <c r="C16" t="n">
-        <v>-104.6596667789762</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1224.013269032895</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -852,12 +752,6 @@
       <c r="B17" t="n">
         <v>539</v>
       </c>
-      <c r="C17" t="n">
-        <v>-128.7091572567277</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1192.540659080959</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -866,12 +760,6 @@
       <c r="B18" t="n">
         <v>539</v>
       </c>
-      <c r="C18" t="n">
-        <v>-66.55581611742227</v>
-      </c>
-      <c r="D18" t="n">
-        <v>1222.158903010484</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -879,12 +767,6 @@
       </c>
       <c r="B19" t="n">
         <v>540</v>
-      </c>
-      <c r="C19" t="n">
-        <v>-110.2926165736396</v>
-      </c>
-      <c r="D19" t="n">
-        <v>1260.230566246338</v>
       </c>
     </row>
   </sheetData>
